--- a/data/Compo_preys.xlsx
+++ b/data/Compo_preys.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgilbe01\Desktop\PhD_2020-2023_09\Analyses\Ker_Arctgazella-prey-poop\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgilbe01\Desktop\PhD_2020-2023_09\01.Analyses\Ker_Arctgazella-prey-poop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B166B1-9B2E-439E-9507-A66442732045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3F6A74-8A66-4E17-9D2B-E57CCF9751C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="résultats envoyés" sheetId="1" r:id="rId2"/>
     <sheet name="résultats certifiés" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="536">
   <si>
     <t>&lt; 0,99</t>
   </si>
@@ -377,9 +377,6 @@
     <t>2005_ELECANT_EA01</t>
   </si>
   <si>
-    <t>Myctophydae</t>
-  </si>
-  <si>
     <t>Electrona antarctica</t>
   </si>
   <si>
@@ -632,33 +629,6 @@
     <t>Gymnoscopelus bolini</t>
   </si>
   <si>
-    <t>2005_GYMNBOL_GB2AB</t>
-  </si>
-  <si>
-    <t>2005_GYMNBOL_GB3AB</t>
-  </si>
-  <si>
-    <t>2005_GYMNBOL_GB4AB</t>
-  </si>
-  <si>
-    <t>2005_GYMNBOL_GB5AB</t>
-  </si>
-  <si>
-    <t>2005_GYMNBOL_GB6AB</t>
-  </si>
-  <si>
-    <t>2005_GYMNBOL_GB8AB</t>
-  </si>
-  <si>
-    <t>2005_GYMNBOL_GB9AB</t>
-  </si>
-  <si>
-    <t>2005_GYMNBOL_GB10AB</t>
-  </si>
-  <si>
-    <t>2005_GYMNBOL_GB11AB</t>
-  </si>
-  <si>
     <t>2005_KREFAND_KA01</t>
   </si>
   <si>
@@ -833,9 +803,6 @@
     <t>Idiacanthus atlanticus</t>
   </si>
   <si>
-    <t>Melamphadidae</t>
-  </si>
-  <si>
     <t>Poromitra crassiceps</t>
   </si>
   <si>
@@ -1629,6 +1596,45 @@
   </si>
   <si>
     <t>Dissostichus eleginoides</t>
+  </si>
+  <si>
+    <t>Melamphaidae</t>
+  </si>
+  <si>
+    <t>Notosudidae</t>
+  </si>
+  <si>
+    <t>Luciosudis normani</t>
+  </si>
+  <si>
+    <t>Myctophidae</t>
+  </si>
+  <si>
+    <t>2005_GYMNBOL_GB2</t>
+  </si>
+  <si>
+    <t>2005_GYMNBOL_GB3</t>
+  </si>
+  <si>
+    <t>2005_GYMNBOL_GB4</t>
+  </si>
+  <si>
+    <t>2005_GYMNBOL_GB5</t>
+  </si>
+  <si>
+    <t>2005_GYMNBOL_GB6</t>
+  </si>
+  <si>
+    <t>2005_GYMNBOL_GB8</t>
+  </si>
+  <si>
+    <t>2005_GYMNBOL_GB9</t>
+  </si>
+  <si>
+    <t>2005_GYMNBOL_GB10</t>
+  </si>
+  <si>
+    <t>2005_GYMNBOL_GB11</t>
   </si>
 </sst>
 </file>
@@ -2030,9 +2036,9 @@
   <dimension ref="A1:W267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A252" activePane="bottomLeft"/>
-      <selection activeCell="H15" sqref="H15:H185"/>
-      <selection pane="bottomLeft" activeCell="B266" sqref="B266:C267"/>
+      <pane ySplit="590" topLeftCell="A73" activePane="bottomLeft"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2118,10 +2124,10 @@
         <v>115</v>
       </c>
       <c r="B2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
       </c>
       <c r="D2" s="3">
         <v>1.9152022885165509</v>
@@ -2186,13 +2192,13 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C3" t="s">
         <v>116</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
       </c>
       <c r="D3" s="3">
         <v>1.429368960073923</v>
@@ -2257,13 +2263,13 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C4" t="s">
         <v>116</v>
-      </c>
-      <c r="C4" t="s">
-        <v>117</v>
       </c>
       <c r="D4" s="3">
         <v>1.6693548387096773</v>
@@ -2328,13 +2334,13 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C5" t="s">
         <v>116</v>
-      </c>
-      <c r="C5" t="s">
-        <v>117</v>
       </c>
       <c r="D5" s="3">
         <v>1.4687451346722717</v>
@@ -2399,13 +2405,13 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C6" t="s">
         <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>117</v>
       </c>
       <c r="D6" s="3">
         <v>1.3330909647545062</v>
@@ -2470,13 +2476,13 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C7" t="s">
         <v>116</v>
-      </c>
-      <c r="C7" t="s">
-        <v>117</v>
       </c>
       <c r="D7" s="3">
         <v>1.2031554266184477</v>
@@ -2541,13 +2547,13 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C8" t="s">
         <v>116</v>
-      </c>
-      <c r="C8" t="s">
-        <v>117</v>
       </c>
       <c r="D8" s="3">
         <v>1.5099555223012013</v>
@@ -2601,7 +2607,7 @@
         <v>41.264496820052372</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V8" s="3">
         <v>32.146568566321648</v>
@@ -2612,13 +2618,13 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C9" t="s">
         <v>116</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
       </c>
       <c r="D9" s="3">
         <v>1.3721131283191308</v>
@@ -2683,13 +2689,13 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C10" t="s">
         <v>116</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
       </c>
       <c r="D10" s="3">
         <v>1.4978426135196221</v>
@@ -2754,13 +2760,13 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
+        <v>526</v>
+      </c>
+      <c r="C11" t="s">
         <v>116</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
       </c>
       <c r="D11" s="3">
         <v>1.5180315858026701</v>
@@ -2825,13 +2831,13 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" t="s">
+        <v>526</v>
+      </c>
+      <c r="C12" t="s">
         <v>128</v>
-      </c>
-      <c r="B12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
       </c>
       <c r="D12" s="3">
         <v>2.6284191962778132</v>
@@ -2846,7 +2852,7 @@
         <v>9.8120145585531504E-2</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I12" s="3">
         <v>2.7972683951821695</v>
@@ -2896,13 +2902,13 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="3">
         <v>2.5717244553544036</v>
@@ -2967,13 +2973,13 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="3">
         <v>2.8729592794145242</v>
@@ -2988,7 +2994,7 @@
         <v>0.12610245824732597</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I14" s="3">
         <v>3.4715706511540625</v>
@@ -3038,13 +3044,13 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="3">
         <v>2.2546940058134974</v>
@@ -3109,13 +3115,13 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="3">
         <v>2.7042033396397143</v>
@@ -3130,7 +3136,7 @@
         <v>0.10878506210413755</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="I16" s="3">
         <v>4.1395903594636829</v>
@@ -3180,13 +3186,13 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17" s="3">
         <v>2.6992804598625235</v>
@@ -3201,7 +3207,7 @@
         <v>0.12943682919966235</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="I17" s="3">
         <v>3.9534509788157743</v>
@@ -3251,13 +3257,13 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" s="3">
         <v>2.1465968586387438</v>
@@ -3272,7 +3278,7 @@
         <v>0.12444623439387838</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="I18" s="3">
         <v>3.1111558598469591</v>
@@ -3322,13 +3328,13 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" s="3">
         <v>2.2797141374216472</v>
@@ -3343,7 +3349,7 @@
         <v>0.12296881862099253</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="I19" s="3">
         <v>3.6890645586297759</v>
@@ -3393,13 +3399,13 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="3">
         <v>2.3295111647555826</v>
@@ -3414,7 +3420,7 @@
         <v>6.7592033796016915E-2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="I20" s="3">
         <v>3.2126332729833038</v>
@@ -3464,13 +3470,13 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" s="3">
         <v>2.8304149676181343</v>
@@ -3485,7 +3491,7 @@
         <v>7.3159030942672107E-2</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="I21" s="3">
         <v>3.1122571360038385</v>
@@ -3535,13 +3541,13 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
+        <v>526</v>
+      </c>
+      <c r="C22" t="s">
         <v>140</v>
-      </c>
-      <c r="B22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" t="s">
-        <v>141</v>
       </c>
       <c r="D22" s="3">
         <v>2.1773935318603908</v>
@@ -3556,7 +3562,7 @@
         <v>8.645533141210375E-2</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="I22" s="3">
         <v>4.6769932756964456</v>
@@ -3606,13 +3612,13 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" s="3">
         <v>4.4899804128371255</v>
@@ -3627,7 +3633,7 @@
         <v>8.0232032544824472E-2</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="I23" s="3">
         <v>4.1208377278891071</v>
@@ -3677,13 +3683,13 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" s="3">
         <v>2.4654994850669416</v>
@@ -3698,7 +3704,7 @@
         <v>8.8568486096807425E-2</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="I24" s="3">
         <v>4.8341915550978376</v>
@@ -3748,13 +3754,13 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" s="3">
         <v>2.8963823992020563</v>
@@ -3769,7 +3775,7 @@
         <v>8.8617792611347682E-2</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="I25" s="3">
         <v>5.8714082940115855</v>
@@ -3819,13 +3825,13 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" s="3">
         <v>2.7981757749091751</v>
@@ -3840,7 +3846,7 @@
         <v>8.6186905774136194E-2</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="I26" s="3">
         <v>4.0755198268532116</v>
@@ -3890,13 +3896,13 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27" s="3">
         <v>3.1203420412646117</v>
@@ -3911,7 +3917,7 @@
         <v>7.6684710127873229E-2</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="I27" s="3">
         <v>4.5677414293559275</v>
@@ -3961,13 +3967,13 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D28" s="3">
         <v>3.0353200883002205</v>
@@ -3982,7 +3988,7 @@
         <v>8.9679911699779249E-2</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="I28" s="3">
         <v>5.1107694733522546</v>
@@ -4032,13 +4038,13 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D29" s="3">
         <v>3.2184968316355183</v>
@@ -4053,7 +4059,7 @@
         <v>0.10206946338333199</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I29" s="3">
         <v>6.4209513114622609</v>
@@ -4103,13 +4109,13 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" s="3">
         <v>2.961386795767774</v>
@@ -4124,7 +4130,7 @@
         <v>9.741147073751609E-2</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="I30" s="3">
         <v>4.995510092531136</v>
@@ -4174,13 +4180,13 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" s="3">
         <v>2.8901380911646095</v>
@@ -4195,7 +4201,7 @@
         <v>8.0247667929447236E-2</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="I31" s="3">
         <v>3.2730457452442057</v>
@@ -4245,13 +4251,13 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>526</v>
+      </c>
+      <c r="C32" t="s">
         <v>151</v>
-      </c>
-      <c r="B32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" t="s">
-        <v>152</v>
       </c>
       <c r="D32" s="3">
         <v>2.3357070980726062</v>
@@ -4266,7 +4272,7 @@
         <v>0.10217509095131204</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="I32" s="3">
         <v>9.5847201795804633</v>
@@ -4316,13 +4322,13 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D33" s="3">
         <v>2.6921992670452255</v>
@@ -4337,7 +4343,7 @@
         <v>9.9069711248036735E-2</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="I33" s="3">
         <v>6.0549313358302124</v>
@@ -4387,13 +4393,13 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D34" s="3">
         <v>3.0678430424623322</v>
@@ -4408,7 +4414,7 @@
         <v>0.1021271452743534</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="I34" s="3">
         <v>5.9584239787285478</v>
@@ -4458,13 +4464,13 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D35" s="3">
         <v>2.5041224067185643</v>
@@ -4479,7 +4485,7 @@
         <v>9.6445143229665992E-2</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="I35" s="3">
         <v>6.3868543160639648</v>
@@ -4529,13 +4535,13 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D36" s="3">
         <v>2.659491193737769</v>
@@ -4550,7 +4556,7 @@
         <v>0.10176125244618396</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I36" s="3">
         <v>5.5694716242661446</v>
@@ -4600,13 +4606,13 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D37" s="3">
         <v>2.5201859554685591</v>
@@ -4621,7 +4627,7 @@
         <v>8.2375010194927017E-2</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="I37" s="3">
         <v>5.1198923415708348</v>
@@ -4671,13 +4677,13 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D38" s="3">
         <v>2.883409945674885</v>
@@ -4692,7 +4698,7 @@
         <v>0.10010257189530068</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="I38" s="3">
         <v>4.5834441363066523</v>
@@ -4742,13 +4748,13 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D39" s="3">
         <v>2.5098463201791645</v>
@@ -4763,7 +4769,7 @@
         <v>9.3443509151285811E-2</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="I39" s="3">
         <v>4.091049501892039</v>
@@ -4813,13 +4819,13 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D40" s="3">
         <v>2.675874843957637</v>
@@ -4834,7 +4840,7 @@
         <v>8.6578343333467575E-2</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="I40" s="3">
         <v>4.1315990818668711</v>
@@ -4884,13 +4890,13 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D41" s="3">
         <v>3.8963973216119623</v>
@@ -4905,7 +4911,7 @@
         <v>8.4213120815018694E-2</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="I41" s="3">
         <v>4.1613605553958024</v>
@@ -4955,13 +4961,13 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42" s="3">
         <v>2.2617186010145316</v>
@@ -4976,7 +4982,7 @@
         <v>0.1077462908577749</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="I42" s="3">
         <v>4.155383500514894</v>
@@ -5026,13 +5032,13 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D43" s="3">
         <v>2.7474073478575449</v>
@@ -5047,7 +5053,7 @@
         <v>9.3054104027654974E-2</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="I43" s="3">
         <v>3.8869684058204039</v>
@@ -5097,13 +5103,13 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" t="s">
+        <v>526</v>
+      </c>
+      <c r="C44" t="s">
         <v>164</v>
-      </c>
-      <c r="B44" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" t="s">
-        <v>165</v>
       </c>
       <c r="D44" s="3">
         <v>3.4930256051598869</v>
@@ -5118,7 +5124,7 @@
         <v>8.3731592648715866E-2</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="I44" s="3">
         <v>4.0389322764891018</v>
@@ -5168,13 +5174,13 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D45" s="3">
         <v>3.6179180957890829</v>
@@ -5189,7 +5195,7 @@
         <v>7.3763378652010422E-2</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="I45" s="3">
         <v>4.1509979751229382</v>
@@ -5239,13 +5245,13 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D46" s="3">
         <v>3.2049264185094835</v>
@@ -5260,7 +5266,7 @@
         <v>7.9287007161407116E-2</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="I46" s="3">
         <v>4.0135358463838831</v>
@@ -5310,13 +5316,13 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D47" s="3">
         <v>3.204763453097057</v>
@@ -5331,7 +5337,7 @@
         <v>6.7875142253292164E-2</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="I47" s="3">
         <v>4.5094293610794995</v>
@@ -5381,13 +5387,13 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D48" s="3">
         <v>2.8622398414271557</v>
@@ -5402,7 +5408,7 @@
         <v>0.10406342913776018</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="I48" s="3">
         <v>5.3260654112983161</v>
@@ -5452,13 +5458,13 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D49" s="3">
         <v>2.8241309604027109</v>
@@ -5473,7 +5479,7 @@
         <v>8.2444805580879132E-2</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="I49" s="3">
         <v>4.9169606405327198</v>
@@ -5523,13 +5529,13 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D50" s="3">
         <v>3.9718862373324622</v>
@@ -5544,7 +5550,7 @@
         <v>6.2929061784897031E-2</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="I50" s="3">
         <v>3.7920889179470412</v>
@@ -5594,13 +5600,13 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D51" s="3">
         <v>3.1081298847796313</v>
@@ -5615,7 +5621,7 @@
         <v>6.1840302957054227E-2</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="I51" s="3">
         <v>4.5403271291596168</v>
@@ -5665,13 +5671,13 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D52" s="3">
         <v>2.6899167220549716</v>
@@ -5686,7 +5692,7 @@
         <v>6.5293036712671559E-2</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="I52" s="3">
         <v>4.230363216952731</v>
@@ -5736,13 +5742,13 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="3">
         <v>2.8144904458598732</v>
@@ -5757,7 +5763,7 @@
         <v>9.434713375796179E-2</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I53" s="3">
         <v>4.7551751592356695</v>
@@ -5807,13 +5813,13 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" t="s">
+        <v>526</v>
+      </c>
+      <c r="C54" t="s">
         <v>175</v>
-      </c>
-      <c r="B54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" t="s">
-        <v>176</v>
       </c>
       <c r="D54" s="3">
         <v>1.8050619916291561</v>
@@ -5828,7 +5834,7 @@
         <v>7.9957356076759079E-2</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="I54" s="3">
         <v>2.6988075495538184</v>
@@ -5878,13 +5884,13 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D55" s="3">
         <v>1.926374385437406</v>
@@ -5899,7 +5905,7 @@
         <v>7.7201251472918633E-2</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="I55" s="3">
         <v>2.9377107797326403</v>
@@ -5949,13 +5955,13 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D56" s="3">
         <v>2.0148926850635127</v>
@@ -5970,7 +5976,7 @@
         <v>6.351292159439334E-2</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="I56" s="3">
         <v>2.8252299605781865</v>
@@ -6020,13 +6026,13 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="3">
         <v>2.1568476545965294</v>
@@ -6041,7 +6047,7 @@
         <v>6.3300881209835694E-2</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="I57" s="3">
         <v>2.4666179243467887</v>
@@ -6091,13 +6097,13 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="3">
         <v>2.1578055413234538</v>
@@ -6112,7 +6118,7 @@
         <v>7.0941552043510811E-2</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="I58" s="3">
         <v>2.5066015055373825</v>
@@ -6162,13 +6168,13 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="3">
         <v>1.5631108896469779</v>
@@ -6183,7 +6189,7 @@
         <v>6.8036337153589629E-2</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="I59" s="3">
         <v>2.6141285599294721</v>
@@ -6233,13 +6239,13 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="3">
         <v>2.1878795001371096</v>
@@ -6254,7 +6260,7 @@
         <v>6.894660555490266E-2</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="I60" s="3">
         <v>2.5796215771536026</v>
@@ -6304,13 +6310,13 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="3">
         <v>2.2493973092775486</v>
@@ -6325,7 +6331,7 @@
         <v>7.9516292091142388E-2</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="I61" s="3">
         <v>2.9823469943230418</v>
@@ -6375,13 +6381,13 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="3">
         <v>2.0562548689983187</v>
@@ -6396,7 +6402,7 @@
         <v>6.9293533970232496E-2</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="I62" s="3">
         <v>3.1018081922178036</v>
@@ -6446,13 +6452,13 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D63" s="3">
         <v>2.0484900708942071</v>
@@ -6467,7 +6473,7 @@
         <v>5.9339626336610399E-2</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="I63" s="3">
         <v>2.6066350710900479</v>
@@ -6517,13 +6523,13 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D64" s="3">
         <v>1.8182885315177839</v>
@@ -6538,7 +6544,7 @@
         <v>7.5713111867590097E-2</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="I64" s="3">
         <v>2.1677035645811324</v>
@@ -6588,13 +6594,13 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D65" s="3">
         <v>1.9728710169355486</v>
@@ -6609,7 +6615,7 @@
         <v>6.9026406613692914E-2</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="I65" s="3">
         <v>2.9737539128340962</v>
@@ -6659,13 +6665,13 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" t="s">
+        <v>526</v>
+      </c>
+      <c r="C66" t="s">
         <v>188</v>
-      </c>
-      <c r="B66" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" t="s">
-        <v>189</v>
       </c>
       <c r="D66" s="3">
         <v>2.059154601560377</v>
@@ -6680,7 +6686,7 @@
         <v>9.0439777976167368E-2</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="I66" s="3">
         <v>3.3167721150487131</v>
@@ -6730,13 +6736,13 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D67" s="3">
         <v>2.856867655557696</v>
@@ -6751,7 +6757,7 @@
         <v>8.553265266807937E-2</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="I67" s="3">
         <v>4.2573685224426896</v>
@@ -6801,13 +6807,13 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D68" s="3">
         <v>2.3135051346638247</v>
@@ -6822,7 +6828,7 @@
         <v>9.7461732222437522E-2</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="I68" s="3">
         <v>3.6213912032551834</v>
@@ -6872,13 +6878,13 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D69" s="3">
         <v>2.4800311708552507</v>
@@ -6893,7 +6899,7 @@
         <v>7.7147866744593813E-2</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="I69" s="3">
         <v>4.0444184687317364</v>
@@ -6943,13 +6949,13 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D70" s="3">
         <v>2.2876872753705126</v>
@@ -6964,7 +6970,7 @@
         <v>8.9851795016758884E-2</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="I70" s="3">
         <v>2.972176230666721</v>
@@ -7014,13 +7020,13 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D71" s="3">
         <v>2.4283242708848247</v>
@@ -7035,7 +7041,7 @@
         <v>8.8976767177459226E-2</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I71" s="3">
         <v>3.4004778381941017</v>
@@ -7085,13 +7091,13 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D72" s="3">
         <v>2.4595092255082487</v>
@@ -7106,7 +7112,7 @@
         <v>8.19210101086017E-2</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="I72" s="3">
         <v>3.9851940926684453</v>
@@ -7156,13 +7162,13 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D73" s="3">
         <v>1.9890096520399059</v>
@@ -7177,7 +7183,7 @@
         <v>9.935923432557385E-2</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="I73" s="3">
         <v>4.0575066915402713</v>
@@ -7227,13 +7233,13 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D74" s="3">
         <v>2.6712871287128714</v>
@@ -7248,7 +7254,7 @@
         <v>8.7524752475247533E-2</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I74" s="3">
         <v>4.6316831683168314</v>
@@ -7298,13 +7304,13 @@
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D75" s="3">
         <v>2.4404905025246451</v>
@@ -7319,7 +7325,7 @@
         <v>8.8362587160375081E-2</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="I75" s="3">
         <v>3.0776628997355133</v>
@@ -7369,13 +7375,13 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B76" t="s">
+        <v>526</v>
+      </c>
+      <c r="C76" t="s">
         <v>199</v>
-      </c>
-      <c r="B76" t="s">
-        <v>116</v>
-      </c>
-      <c r="C76" t="s">
-        <v>200</v>
       </c>
       <c r="D76" s="3">
         <v>3.0634662327095206</v>
@@ -7390,7 +7396,7 @@
         <v>0.15541090317331166</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="I76" s="3">
         <v>2.9882017900732305</v>
@@ -7440,13 +7446,13 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>201</v>
+        <v>527</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D77" s="3">
         <v>3.9786856127886319</v>
@@ -7461,7 +7467,7 @@
         <v>6.5127294256956778E-2</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="I77" s="3">
         <v>2.3169528320505233</v>
@@ -7511,13 +7517,13 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>202</v>
+        <v>528</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C78" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D78" s="3">
         <v>2.7312704240125876</v>
@@ -7532,7 +7538,7 @@
         <v>7.0399806350102873E-2</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="I78" s="3">
         <v>3.2517045225319725</v>
@@ -7582,13 +7588,13 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>203</v>
+        <v>529</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D79" s="3">
         <v>3.2748768472906411</v>
@@ -7603,7 +7609,7 @@
         <v>0.11605911330049262</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="I79" s="3">
         <v>2.2325123152709363</v>
@@ -7653,13 +7659,13 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>204</v>
+        <v>530</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D80" s="3">
         <v>3.9502499896698486</v>
@@ -7674,7 +7680,7 @@
         <v>7.3757282756910875E-2</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I80" s="3">
         <v>2.5060947894715095</v>
@@ -7724,13 +7730,13 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>205</v>
+        <v>531</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D81" s="3">
         <v>4.3525139030757014</v>
@@ -7745,7 +7751,7 @@
         <v>6.3935232474558318E-2</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="I81" s="3">
         <v>2.4855294518215865</v>
@@ -7795,13 +7801,13 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>206</v>
+        <v>532</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C82" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D82" s="3">
         <v>3.8696615478646192</v>
@@ -7816,7 +7822,7 @@
         <v>7.1052028420811375E-2</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="I82" s="3">
         <v>2.2461608984643591</v>
@@ -7866,13 +7872,13 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>207</v>
+        <v>533</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D83" s="3">
         <v>3.4433781190019199</v>
@@ -7887,7 +7893,7 @@
         <v>6.6026871401151627E-2</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="I83" s="3">
         <v>2.6602687140115164</v>
@@ -7937,13 +7943,13 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>208</v>
+        <v>534</v>
       </c>
       <c r="B84" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D84" s="3">
         <v>3.624707684864124</v>
@@ -7958,7 +7964,7 @@
         <v>9.2331263607773578E-2</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="I84" s="3">
         <v>2.3486009192807034</v>
@@ -8008,13 +8014,13 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>209</v>
+        <v>535</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D85" s="3">
         <v>3.4421763175016267</v>
@@ -8029,7 +8035,7 @@
         <v>5.3675992192582962E-2</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="I85" s="3">
         <v>2.3666232921275214</v>
@@ -8079,13 +8085,13 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C86" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D86" s="3">
         <v>4.8714134732062488</v>
@@ -8100,7 +8106,7 @@
         <v>6.458683994206757E-2</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="I86" s="3">
         <v>5.4683524484283881</v>
@@ -8150,13 +8156,13 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C87" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D87" s="3">
         <v>4.6689794738363686</v>
@@ -8171,7 +8177,7 @@
         <v>7.9709247098666003E-2</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="I87" s="3">
         <v>7.0747119316069877</v>
@@ -8221,13 +8227,13 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C88" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D88" s="3">
         <v>4.8102509518156147</v>
@@ -8242,7 +8248,7 @@
         <v>7.0004503213657018E-2</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="I88" s="3">
         <v>6.0261186392107104</v>
@@ -8292,13 +8298,13 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B89" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C89" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D89" s="3">
         <v>4.3015996878657825</v>
@@ -8313,7 +8319,7 @@
         <v>6.1451424112368327E-2</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="I89" s="3">
         <v>4.3679282091299267</v>
@@ -8363,13 +8369,13 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B90" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C90" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D90" s="3">
         <v>2.0091093117408909</v>
@@ -8384,7 +8390,7 @@
         <v>0.10060728744939272</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="I90" s="3">
         <v>5.1842105263157894</v>
@@ -8434,13 +8440,13 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C91" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D91" s="3">
         <v>1.4899889448470705</v>
@@ -8455,7 +8461,7 @@
         <v>0.48519837857757037</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="I91" s="3">
         <v>7.445850223150309</v>
@@ -8505,13 +8511,13 @@
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B92" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C92" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D92" s="3">
         <v>2.3698630136986303</v>
@@ -8526,7 +8532,7 @@
         <v>0.11428571428571428</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I92" s="3">
         <v>6.1272015655577299</v>
@@ -8576,13 +8582,13 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B93" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C93" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D93" s="3">
         <v>1.9423528943069996</v>
@@ -8597,7 +8603,7 @@
         <v>0.12848093701446156</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="I93" s="3">
         <v>6.8782120234253616</v>
@@ -8647,13 +8653,13 @@
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B94" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C94" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D94" s="3">
         <v>2.7178207527552511</v>
@@ -8668,7 +8674,7 @@
         <v>9.3990434601788325E-2</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="I94" s="3">
         <v>4.1734248284466631</v>
@@ -8707,7 +8713,7 @@
         <v>49.621542940320232</v>
       </c>
       <c r="U94" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V94" s="3">
         <v>46.837180286961946</v>
@@ -8718,13 +8724,13 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C95" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D95" s="3">
         <v>2.9636370830530607</v>
@@ -8739,7 +8745,7 @@
         <v>0.12325406560360859</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="I95" s="3">
         <v>5.3139714319629645</v>
@@ -8789,13 +8795,13 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B96" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C96" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D96" s="3">
         <v>3.0578945247975509</v>
@@ -8810,7 +8816,7 @@
         <v>0.11119616453809276</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="I96" s="3">
         <v>6.1621207848193071</v>
@@ -8860,13 +8866,13 @@
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B97" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C97" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D97" s="3">
         <v>1.7127839536007736</v>
@@ -8881,7 +8887,7 @@
         <v>0.12405348799742227</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="I97" s="3">
         <v>7.7875785403576616</v>
@@ -8931,13 +8937,13 @@
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C98" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D98" s="3">
         <v>2.8934221482098255</v>
@@ -8952,7 +8958,7 @@
         <v>0.10720233139050792</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="I98" s="3">
         <v>6.536219816819318</v>
@@ -8991,7 +8997,7 @@
         <v>82.248126561199001</v>
       </c>
       <c r="U98" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V98" s="3">
         <v>54.027893422148217</v>
@@ -9002,13 +9008,13 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C99" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D99" s="3">
         <v>2.1654737352905498</v>
@@ -9023,7 +9029,7 @@
         <v>0.11464272716244085</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="I99" s="3">
         <v>5.161955598689798</v>
@@ -9073,13 +9079,13 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C100" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D100" s="3">
         <v>1.7928902627511594</v>
@@ -9094,7 +9100,7 @@
         <v>0.12490078950666277</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="I100" s="3">
         <v>7.8574710723087851</v>
@@ -9133,7 +9139,7 @@
         <v>101.96958937298969</v>
       </c>
       <c r="U100" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V100" s="3">
         <v>55.601737750114872</v>
@@ -9144,13 +9150,13 @@
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C101" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D101" s="3">
         <v>1.5898798976176411</v>
@@ -9165,7 +9171,7 @@
         <v>0.13014372908052768</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="I101" s="3">
         <v>6.5800354400472543</v>
@@ -9215,13 +9221,13 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C102" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D102" s="3">
         <v>2.0479356480341462</v>
@@ -9236,7 +9242,7 @@
         <v>0.13420339817778873</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="I102" s="3">
         <v>6.324386440121482</v>
@@ -9286,13 +9292,13 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C103" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D103" s="3">
         <v>2.0460048426150124</v>
@@ -9307,7 +9313,7 @@
         <v>0.1192493946731235</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="I103" s="3">
         <v>7.0016142050040369</v>
@@ -9357,13 +9363,13 @@
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C104" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D104" s="3">
         <v>2.0143857366951066</v>
@@ -9378,7 +9384,7 @@
         <v>8.7806557753376452E-2</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="I104" s="3">
         <v>8.7347438497149632</v>
@@ -9428,13 +9434,13 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C105" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D105" s="3">
         <v>2.584788280152519</v>
@@ -9449,7 +9455,7 @@
         <v>0.10254866546257276</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="I105" s="3">
         <v>6.7288781858318281</v>
@@ -9499,13 +9505,13 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B106" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C106" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D106" s="3">
         <v>3.0568289598482457</v>
@@ -9520,7 +9526,7 @@
         <v>9.8996206133417655E-2</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="I106" s="3">
         <v>6.8961429023079361</v>
@@ -9570,13 +9576,13 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C107" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D107" s="3">
         <v>1.8094719432006132</v>
@@ -9591,7 +9597,7 @@
         <v>0.10105288636088589</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="I107" s="3">
         <v>6.9446125297510992</v>
@@ -9641,13 +9647,13 @@
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C108" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D108" s="3">
         <v>2.0846169644690904</v>
@@ -9712,13 +9718,13 @@
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C109" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D109" s="3">
         <v>2.0185127566894834</v>
@@ -9783,13 +9789,13 @@
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C110" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D110" s="3">
         <v>1.6401764325639761</v>
@@ -9854,13 +9860,13 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C111" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D111" s="3">
         <v>2.1443944433574647</v>
@@ -9925,13 +9931,13 @@
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C112" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D112" s="3">
         <v>1.8909414285136827</v>
@@ -9996,13 +10002,13 @@
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C113" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D113" s="3">
         <v>2.1844660194174756</v>
@@ -10067,13 +10073,13 @@
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C114" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D114" s="3">
         <v>2.6113097811136874</v>
@@ -10088,7 +10094,7 @@
         <v>0.1082642354698</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="I114" s="3">
         <v>5.5664714897630381</v>
@@ -10138,13 +10144,13 @@
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C115" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D115" s="3">
         <v>2.6874426399585016</v>
@@ -10159,7 +10165,7 @@
         <v>0.11292446430709069</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="I115" s="3">
         <v>7.9725469853557325</v>
@@ -10209,13 +10215,13 @@
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C116" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D116" s="3">
         <v>1.798033526756931</v>
@@ -10230,7 +10236,7 @@
         <v>0.13519503546099293</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="I116" s="3">
         <v>7.8457446808510642</v>
@@ -10280,13 +10286,13 @@
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C117" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D117" s="3">
         <v>1.8332815091210615</v>
@@ -10301,7 +10307,7 @@
         <v>0.16428275290215588</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="I117" s="3">
         <v>13.391376451077944</v>
@@ -10340,7 +10346,7 @@
         <v>106.29664179104479</v>
       </c>
       <c r="U117" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="V117" s="3">
         <v>114.81654228855723</v>
@@ -10351,13 +10357,13 @@
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C118" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D118" s="3">
         <v>2.3918544402940114</v>
@@ -10372,7 +10378,7 @@
         <v>0.10021287705346026</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="I118" s="3">
         <v>6.6072217536249349</v>
@@ -10422,13 +10428,13 @@
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B119" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C119" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D119" s="3">
         <v>2.0792697199032535</v>
@@ -10443,7 +10449,7 @@
         <v>0.11020519622376529</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="I119" s="3">
         <v>11.461340407271592</v>
@@ -10493,13 +10499,13 @@
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B120" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C120" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D120" s="3">
         <v>1.8823800738007384</v>
@@ -10514,7 +10520,7 @@
         <v>0.13952952029520296</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="I120" s="3">
         <v>9.0682656826568273</v>
@@ -10553,7 +10559,7 @@
         <v>106.45525830258303</v>
       </c>
       <c r="U120" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="V120" s="3">
         <v>118.11577490774908</v>
@@ -10564,13 +10570,13 @@
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B121" t="s">
-        <v>116</v>
+        <v>526</v>
       </c>
       <c r="C121" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D121" s="3">
         <v>1.5738398374320905</v>
@@ -10585,7 +10591,7 @@
         <v>0.12234064612449715</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="I121" s="3">
         <v>6.7162941152075648</v>
@@ -10624,7 +10630,7 @@
         <v>92.564176999958519</v>
       </c>
       <c r="U121" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V121" s="3">
         <v>50.25504914361548</v>
@@ -10638,10 +10644,10 @@
         <v>87</v>
       </c>
       <c r="B122" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C122" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D122" s="3">
         <v>15.97827810369431</v>
@@ -10656,7 +10662,7 @@
         <v>8.1060726177263356E-2</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="I122" s="3">
         <v>8.3934517203107664</v>
@@ -10709,10 +10715,10 @@
         <v>86</v>
       </c>
       <c r="B123" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C123" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D123" s="3">
         <v>14.105634946411172</v>
@@ -10727,7 +10733,7 @@
         <v>9.8246183825917502E-2</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="I123" s="3">
         <v>5.9536375446573553</v>
@@ -10780,10 +10786,10 @@
         <v>85</v>
       </c>
       <c r="B124" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C124" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D124" s="3">
         <v>11.839916437773223</v>
@@ -10798,7 +10804,7 @@
         <v>8.4722813261634888E-2</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="I124" s="3">
         <v>5.5340632132771095</v>
@@ -10851,10 +10857,10 @@
         <v>84</v>
       </c>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C125" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D125" s="3">
         <v>4.4949670253384237</v>
@@ -10869,7 +10875,7 @@
         <v>5.8235952022831577E-2</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="I125" s="3">
         <v>4.6550194762621002</v>
@@ -10922,10 +10928,10 @@
         <v>83</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C126" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D126" s="3">
         <v>3.6541148921705635</v>
@@ -10940,7 +10946,7 @@
         <v>7.1571552668353675E-2</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="I126" s="3">
         <v>5.1875212448540235</v>
@@ -10993,10 +10999,10 @@
         <v>82</v>
       </c>
       <c r="B127" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C127" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D127" s="3">
         <v>3.9022867400296577</v>
@@ -11011,7 +11017,7 @@
         <v>0.35686412237571219</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="I127" s="3">
         <v>4.6593303675954107</v>
@@ -11064,10 +11070,10 @@
         <v>81</v>
       </c>
       <c r="B128" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C128" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D128" s="3">
         <v>3.3217180516627529</v>
@@ -11082,7 +11088,7 @@
         <v>7.4804939019771255E-2</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="I128" s="3">
         <v>4.8708431179456104</v>
@@ -11135,10 +11141,10 @@
         <v>80</v>
       </c>
       <c r="B129" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C129" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D129" s="3">
         <v>5.9735738586913518</v>
@@ -11153,7 +11159,7 @@
         <v>9.2175013846032119E-2</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="I129" s="3">
         <v>5.0755597752986787</v>
@@ -11206,10 +11212,10 @@
         <v>79</v>
       </c>
       <c r="B130" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C130" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D130" s="3">
         <v>11.103168469860897</v>
@@ -11224,7 +11230,7 @@
         <v>7.2836166924265852E-2</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="I130" s="3">
         <v>4.4474497681607428</v>
@@ -11277,10 +11283,10 @@
         <v>78</v>
       </c>
       <c r="B131" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C131" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D131" s="3">
         <v>5.2391304347826093</v>
@@ -11295,7 +11301,7 @@
         <v>8.1225296442687736E-2</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="I131" s="3">
         <v>3.9960474308300391</v>
@@ -11348,10 +11354,10 @@
         <v>77</v>
       </c>
       <c r="B132" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D132" s="3">
         <v>1.6929149555440379</v>
@@ -11366,7 +11372,7 @@
         <v>7.1966827478968154E-2</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="I132" s="3">
         <v>7.7768031577688292</v>
@@ -11419,10 +11425,10 @@
         <v>76</v>
       </c>
       <c r="B133" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D133" s="3">
         <v>1.5114699375072778</v>
@@ -11437,7 +11443,7 @@
         <v>5.5505958157046925E-2</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="I133" s="3">
         <v>9.8513371889919661</v>
@@ -11490,10 +11496,10 @@
         <v>75</v>
       </c>
       <c r="B134" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D134" s="3">
         <v>1.3809786028949025</v>
@@ -11508,7 +11514,7 @@
         <v>5.5656073001887969E-2</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="I134" s="3">
         <v>10.30915670232851</v>
@@ -11561,10 +11567,10 @@
         <v>74</v>
       </c>
       <c r="B135" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D135" s="3">
         <v>1.4479106489505105</v>
@@ -11579,7 +11585,7 @@
         <v>5.2378201424995191E-2</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="I135" s="3">
         <v>8.9870980165607559</v>
@@ -11632,10 +11638,10 @@
         <v>73</v>
       </c>
       <c r="B136" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D136" s="3">
         <v>1.3895420668765692</v>
@@ -11650,7 +11656,7 @@
         <v>6.1575863855565738E-2</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="I136" s="3">
         <v>8.271890319237972</v>
@@ -11703,10 +11709,10 @@
         <v>72</v>
       </c>
       <c r="B137" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D137" s="3">
         <v>1.500141694668232</v>
@@ -11721,7 +11727,7 @@
         <v>6.3965021659042151E-2</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="I137" s="3">
         <v>9.9105299380591898</v>
@@ -11774,10 +11780,10 @@
         <v>71</v>
       </c>
       <c r="B138" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D138" s="3">
         <v>1.531124497991968</v>
@@ -11792,7 +11798,7 @@
         <v>6.4056224899598405E-2</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="I138" s="3">
         <v>10.787148594377509</v>
@@ -11845,10 +11851,10 @@
         <v>70</v>
       </c>
       <c r="B139" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D139" s="3">
         <v>1.7914273599814978</v>
@@ -11863,7 +11869,7 @@
         <v>5.1073507304475199E-2</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="I139" s="3">
         <v>11.016459160467178</v>
@@ -11916,10 +11922,10 @@
         <v>69</v>
       </c>
       <c r="B140" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D140" s="3">
         <v>1.3895705521472392</v>
@@ -11934,7 +11940,7 @@
         <v>5.3169734151329251E-2</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="I140" s="3">
         <v>9.0593047034764815</v>
@@ -11987,10 +11993,10 @@
         <v>68</v>
       </c>
       <c r="B141" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D141" s="3">
         <v>1.3917911845111037</v>
@@ -12005,7 +12011,7 @@
         <v>7.3961727146762551E-2</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="I141" s="3">
         <v>9.7760551248923342</v>
@@ -12058,10 +12064,10 @@
         <v>67</v>
       </c>
       <c r="B142" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D142" s="3">
         <v>11.646036657938586</v>
@@ -12076,7 +12082,7 @@
         <v>0.12179639768309133</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="I142" s="3">
         <v>8.6388161548837559</v>
@@ -12129,10 +12135,10 @@
         <v>66</v>
       </c>
       <c r="B143" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D143" s="3">
         <v>2.1810028536485939</v>
@@ -12147,7 +12153,7 @@
         <v>0.10966163880962089</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="I143" s="3">
         <v>5.2955564614757451</v>
@@ -12200,10 +12206,10 @@
         <v>65</v>
       </c>
       <c r="B144" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D144" s="3">
         <v>12.105117127115621</v>
@@ -12218,7 +12224,7 @@
         <v>9.6317729596892471E-2</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I144" s="3">
         <v>7.0137540132387333</v>
@@ -12271,10 +12277,10 @@
         <v>64</v>
       </c>
       <c r="B145" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D145" s="3">
         <v>11.15868612551763</v>
@@ -12289,7 +12295,7 @@
         <v>0.16021388654364171</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="I145" s="3">
         <v>5.8034816869698078</v>
@@ -12342,10 +12348,10 @@
         <v>63</v>
       </c>
       <c r="B146" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D146" s="3">
         <v>11.595985629490785</v>
@@ -12360,7 +12366,7 @@
         <v>8.9229928147453938E-2</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="I146" s="3">
         <v>4.8246641674476729</v>
@@ -12413,10 +12419,10 @@
         <v>62</v>
       </c>
       <c r="B147" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D147" s="3">
         <v>0.61244584482079556</v>
@@ -12431,7 +12437,7 @@
         <v>0.11253024250267261</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="I147" s="3">
         <v>9.2021605806560522</v>
@@ -12484,10 +12490,10 @@
         <v>60</v>
       </c>
       <c r="B148" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D148" s="3">
         <v>0.78970459198596088</v>
@@ -12502,7 +12508,7 @@
         <v>0.15472360339280494</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="I148" s="3">
         <v>11.193331383445454</v>
@@ -12555,10 +12561,10 @@
         <v>58</v>
       </c>
       <c r="B149" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D149" s="3">
         <v>0.94139797599435182</v>
@@ -12573,7 +12579,7 @@
         <v>0.1762179336314427</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="I149" s="3">
         <v>10.796658037185221</v>
@@ -12626,10 +12632,10 @@
         <v>56</v>
       </c>
       <c r="B150" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D150" s="3">
         <v>0.73084511673791519</v>
@@ -12644,7 +12650,7 @@
         <v>0.3169187767181848</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="I150" s="3">
         <v>15.048503781650773</v>
@@ -12697,10 +12703,10 @@
         <v>54</v>
       </c>
       <c r="B151" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D151" s="3">
         <v>0.62142689325710709</v>
@@ -12715,7 +12721,7 @@
         <v>0.14566528310752605</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="I151" s="3">
         <v>13.458375753778682</v>
@@ -12768,10 +12774,10 @@
         <v>51</v>
       </c>
       <c r="B152" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D152" s="3">
         <v>0.93864998422878776</v>
@@ -12786,7 +12792,7 @@
         <v>0.1968772999684576</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I152" s="3">
         <v>6.5897381978761436</v>
@@ -12839,10 +12845,10 @@
         <v>49</v>
       </c>
       <c r="B153" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D153" s="3">
         <v>0.81210191082802552</v>
@@ -12857,7 +12863,7 @@
         <v>0.23644084153638295</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="I153" s="3">
         <v>17.569002123142251</v>
@@ -12910,10 +12916,10 @@
         <v>47</v>
       </c>
       <c r="B154" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D154" s="3">
         <v>0.74604743083003966</v>
@@ -12928,7 +12934,7 @@
         <v>0.26365432985986348</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I154" s="3">
         <v>16.749011857707512</v>
@@ -12981,10 +12987,10 @@
         <v>45</v>
       </c>
       <c r="B155" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D155" s="3">
         <v>0.96523571240452999</v>
@@ -12999,7 +13005,7 @@
         <v>0.35455622860152758</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="I155" s="3">
         <v>8.38820121148275</v>
@@ -13052,10 +13058,10 @@
         <v>43</v>
       </c>
       <c r="B156" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D156" s="3">
         <v>0.87266484315893622</v>
@@ -13070,7 +13076,7 @@
         <v>0.20659954606296918</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="I156" s="3">
         <v>20.226386544840832</v>
@@ -13123,10 +13129,10 @@
         <v>41</v>
       </c>
       <c r="B157" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D157" s="3">
         <v>5.1083215225754204</v>
@@ -13141,7 +13147,7 @@
         <v>0.10083012755618546</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="I157" s="3">
         <v>5.3452115812917596</v>
@@ -13194,10 +13200,10 @@
         <v>40</v>
       </c>
       <c r="B158" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D158" s="3">
         <v>6.5798058103388728</v>
@@ -13212,7 +13218,7 @@
         <v>0.17442529838431131</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="I158" s="3">
         <v>7.6985071190083261</v>
@@ -13265,10 +13271,10 @@
         <v>39</v>
       </c>
       <c r="B159" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D159" s="3">
         <v>6.6161108101833941</v>
@@ -13283,7 +13289,7 @@
         <v>0.14547705641105005</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="I159" s="3">
         <v>8.1385901106554197</v>
@@ -13336,10 +13342,10 @@
         <v>38</v>
       </c>
       <c r="B160" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D160" s="3">
         <v>5.6048658715378226</v>
@@ -13354,7 +13360,7 @@
         <v>0.10916511471252528</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="I160" s="3">
         <v>5.7911003685065587</v>
@@ -13407,10 +13413,10 @@
         <v>37</v>
       </c>
       <c r="B161" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D161" s="3">
         <v>6.4342606923105983</v>
@@ -13425,7 +13431,7 @@
         <v>0.1098486278358688</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="I161" s="3">
         <v>8.1914612509909031</v>
@@ -13478,10 +13484,10 @@
         <v>36</v>
       </c>
       <c r="B162" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D162" s="3">
         <v>5.4624080115317506</v>
@@ -13496,7 +13502,7 @@
         <v>0.12954252332903424</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I162" s="3">
         <v>8.278962142477809</v>
@@ -13549,10 +13555,10 @@
         <v>34</v>
       </c>
       <c r="B163" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D163" s="3">
         <v>10.37735849056604</v>
@@ -13567,7 +13573,7 @@
         <v>0.11762344439983943</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="I163" s="3">
         <v>7.6093938177438778</v>
@@ -13620,10 +13626,10 @@
         <v>32</v>
       </c>
       <c r="B164" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D164" s="3">
         <v>2.3172767146683224</v>
@@ -13638,7 +13644,7 @@
         <v>0.10907114854636495</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="I164" s="3">
         <v>13.919186430151768</v>
@@ -13691,10 +13697,10 @@
         <v>31</v>
       </c>
       <c r="B165" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D165" s="3">
         <v>1.2869658364895369</v>
@@ -13709,7 +13715,7 @@
         <v>8.1296147519032871E-2</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="I165" s="3">
         <v>10.7234400703929</v>
@@ -13762,10 +13768,10 @@
         <v>30</v>
       </c>
       <c r="B166" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D166" s="3">
         <v>1.2583879525593009</v>
@@ -13780,7 +13786,7 @@
         <v>8.7000624219725348E-2</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="I166" s="3">
         <v>10.266463795255932</v>
@@ -13833,10 +13839,10 @@
         <v>28</v>
       </c>
       <c r="B167" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D167" s="3">
         <v>4.3837159616206351</v>
@@ -13851,7 +13857,7 @@
         <v>5.7102901759701667E-2</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="I167" s="3">
         <v>8.0157712776288719</v>
@@ -13904,10 +13910,10 @@
         <v>27</v>
       </c>
       <c r="B168" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D168" s="3">
         <v>4.1087000608395865</v>
@@ -13922,7 +13928,7 @@
         <v>4.3398904887446771E-2</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="I168" s="3">
         <v>5.4228351247211517</v>
@@ -13975,10 +13981,10 @@
         <v>25</v>
       </c>
       <c r="B169" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D169" s="3">
         <v>3.8070678127984721</v>
@@ -13993,7 +13999,7 @@
         <v>2.2349570200573071E-2</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I169" s="3">
         <v>4.2578796561604593</v>
@@ -14046,10 +14052,10 @@
         <v>23</v>
       </c>
       <c r="B170" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D170" s="3">
         <v>3.7290901672786623</v>
@@ -14064,7 +14070,7 @@
         <v>3.3863729090167279E-2</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I170" s="3">
         <v>5.3753569971440234</v>
@@ -14117,10 +14123,10 @@
         <v>22</v>
       </c>
       <c r="B171" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D171" s="3">
         <v>1.4839683737931582</v>
@@ -14135,7 +14141,7 @@
         <v>3.8142159005125353E-2</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="I171" s="3">
         <v>5.7769478326512766</v>
@@ -14188,10 +14194,10 @@
         <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>268</v>
+        <v>523</v>
       </c>
       <c r="C172" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D172" s="3">
         <v>2.9963110743055035</v>
@@ -14206,7 +14212,7 @@
         <v>5.4204622449747795E-2</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="I172" s="3">
         <v>3.6268162312730556</v>
@@ -14259,10 +14265,10 @@
         <v>20</v>
       </c>
       <c r="B173" t="s">
-        <v>268</v>
-      </c>
-      <c r="C173" t="s">
-        <v>269</v>
+        <v>524</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>525</v>
       </c>
       <c r="D173" s="3">
         <v>3.2026321937543805</v>
@@ -14277,7 +14283,7 @@
         <v>5.9380110583287904E-2</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="I173" s="3">
         <v>6.4870337201152566</v>
@@ -14330,10 +14336,10 @@
         <v>18</v>
       </c>
       <c r="B174" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D174" s="3">
         <v>2.4365561264206761</v>
@@ -14348,7 +14354,7 @@
         <v>0.10878872800871868</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="I174" s="3">
         <v>5.6437801650319175</v>
@@ -14401,10 +14407,10 @@
         <v>17</v>
       </c>
       <c r="B175" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D175" s="3">
         <v>2.8794229825157664</v>
@@ -14419,7 +14425,7 @@
         <v>0.11045655375552282</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="I175" s="3">
         <v>5.6927608474000229</v>
@@ -14469,13 +14475,13 @@
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B176" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C176" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D176" s="3">
         <v>5.2863976450386367</v>
@@ -14540,13 +14546,13 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B177" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C177" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D177" s="3">
         <v>4.1492910758965804</v>
@@ -14600,7 +14606,7 @@
         <v>79.758131776480397</v>
       </c>
       <c r="U177" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V177" s="3">
         <v>86.059216013344454</v>
@@ -14611,13 +14617,13 @@
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B178" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C178" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D178" s="3">
         <v>3.3604687745792039</v>
@@ -14682,13 +14688,13 @@
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B179" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C179" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D179" s="3">
         <v>3.8061717279201122</v>
@@ -14753,13 +14759,13 @@
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B180" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C180" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D180" s="3">
         <v>4.1216243572614282</v>
@@ -14824,13 +14830,13 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B181" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C181" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D181" s="3">
         <v>4.1554702495201532</v>
@@ -14895,13 +14901,13 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B182" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C182" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D182" s="3">
         <v>5.4286183940166026</v>
@@ -14966,13 +14972,13 @@
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B183" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C183" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D183" s="3">
         <v>3.9438558438308164</v>
@@ -15026,7 +15032,7 @@
         <v>120.64319679652958</v>
       </c>
       <c r="U183" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V183" s="3">
         <v>101.01776925002086</v>
@@ -15037,13 +15043,13 @@
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B184" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C184" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D184" s="3">
         <v>3.9094321539813115</v>
@@ -15108,13 +15114,13 @@
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B185" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C185" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D185" s="3">
         <v>3.5229625086253167</v>
@@ -15179,13 +15185,13 @@
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B186" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C186" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D186" s="3">
         <v>25.90663580246914</v>
@@ -15250,13 +15256,13 @@
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B187" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C187" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D187" s="3">
         <v>10.025946647206682</v>
@@ -15321,13 +15327,13 @@
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B188" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C188" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D188" s="3">
         <v>4.8263172793076956</v>
@@ -15392,13 +15398,13 @@
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B189" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C189" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D189" s="3">
         <v>10.853903147897991</v>
@@ -15463,13 +15469,13 @@
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B190" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C190" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D190" s="3">
         <v>10.298976870098331</v>
@@ -15534,13 +15540,13 @@
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B191" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C191" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D191" s="3">
         <v>15.798260599471966</v>
@@ -15605,13 +15611,13 @@
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B192" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C192" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D192" s="3">
         <v>14.593969368219531</v>
@@ -15676,13 +15682,13 @@
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B193" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C193" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D193" s="3">
         <v>8.0936346302081237</v>
@@ -15747,13 +15753,13 @@
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B194" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C194" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D194" s="3">
         <v>9.6042546535272955</v>
@@ -15818,13 +15824,13 @@
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B195" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C195" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D195" s="3">
         <v>13.36550060313631</v>
@@ -15889,13 +15895,13 @@
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B196" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C196" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D196" s="3">
         <v>29.898016094335109</v>
@@ -15960,13 +15966,13 @@
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B197" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C197" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D197" s="3">
         <v>29.365733113673805</v>
@@ -16031,13 +16037,13 @@
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B198" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C198" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D198" s="3">
         <v>22.254255361162674</v>
@@ -16102,13 +16108,13 @@
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B199" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C199" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D199" s="3">
         <v>11.087492053401144</v>
@@ -16173,13 +16179,13 @@
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B200" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C200" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D200" s="3">
         <v>12.679895770695531</v>
@@ -16244,13 +16250,13 @@
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B201" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C201" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D201" s="3">
         <v>17.806002750586522</v>
@@ -16315,13 +16321,13 @@
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B202" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C202" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D202" s="3">
         <v>9.4603434178250208</v>
@@ -16386,13 +16392,13 @@
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B203" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C203" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D203" s="3">
         <v>7.5607687959299055</v>
@@ -16457,13 +16463,13 @@
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B204" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C204" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D204" s="3">
         <v>6.7023537431332452</v>
@@ -16528,13 +16534,13 @@
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B205" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C205" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D205" s="3">
         <v>10.707595035516354</v>
@@ -16599,13 +16605,13 @@
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B206" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C206" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D206" s="3">
         <v>9.9598174228533551</v>
@@ -16670,13 +16676,13 @@
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B207" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C207" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D207" s="3">
         <v>9.5361440981908032</v>
@@ -16741,13 +16747,13 @@
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B208" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C208" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D208" s="3">
         <v>9.0531561461794041</v>
@@ -16812,13 +16818,13 @@
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B209" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C209" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D209" s="3">
         <v>11.384573346865485</v>
@@ -16883,13 +16889,13 @@
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B210" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C210" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D210" s="3">
         <v>14.565675858501454</v>
@@ -16954,13 +16960,13 @@
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B211" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C211" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D211" s="3">
         <v>8.4451679504486634</v>
@@ -17025,13 +17031,13 @@
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B212" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C212" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D212" s="3">
         <v>7.8865547893331218</v>
@@ -17096,13 +17102,13 @@
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B213" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C213" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D213" s="3">
         <v>6.5280368268582087</v>
@@ -17167,13 +17173,13 @@
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B214" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C214" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D214" s="3">
         <v>11.921080379592832</v>
@@ -17238,13 +17244,13 @@
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B215" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C215" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D215" s="3">
         <v>10.886394033964251</v>
@@ -17309,13 +17315,13 @@
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B216" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C216" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D216" s="3">
         <v>8.9682667525773194</v>
@@ -17380,13 +17386,13 @@
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B217" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C217" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D217" s="3">
         <v>10.225590976360946</v>
@@ -17451,13 +17457,13 @@
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B218" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C218" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D218" s="3">
         <v>15.65119607442241</v>
@@ -17522,13 +17528,13 @@
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B219" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C219" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D219" s="3">
         <v>7.9783827061649326</v>
@@ -17593,13 +17599,13 @@
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B220" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C220" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D220" s="3">
         <v>9.5988262095061589</v>
@@ -17664,13 +17670,13 @@
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B221" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C221" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D221" s="3">
         <v>11.210727065392634</v>
@@ -17735,13 +17741,13 @@
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="B222" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C222" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D222" s="3">
         <v>8.5695113286492468</v>
@@ -17806,13 +17812,13 @@
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B223" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C223" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D223" s="3">
         <v>11.471141044717678</v>
@@ -17877,13 +17883,13 @@
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B224" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C224" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D224" s="3">
         <v>1.9773851017265138</v>
@@ -17948,13 +17954,13 @@
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B225" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C225" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D225" s="3">
         <v>1.9641562625855822</v>
@@ -18019,13 +18025,13 @@
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B226" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C226" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D226" s="3">
         <v>1.6479178597725601</v>
@@ -18090,13 +18096,13 @@
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B227" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C227" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D227" s="3">
         <v>1.7913832199546487</v>
@@ -18161,13 +18167,13 @@
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="B228" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C228" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D228" s="3">
         <v>1.7162303259986851</v>
@@ -18232,13 +18238,13 @@
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B229" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C229" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D229" s="3">
         <v>1.4909819639278559</v>
@@ -18303,13 +18309,13 @@
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B230" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C230" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D230" s="3">
         <v>1.8130101409844175</v>
@@ -18374,13 +18380,13 @@
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B231" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C231" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D231" s="3">
         <v>2.198825673213201</v>
@@ -18445,13 +18451,13 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B232" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C232" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D232" s="3">
         <v>2.0092121982210926</v>
@@ -18516,13 +18522,13 @@
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B233" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C233" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D233" s="3">
         <v>1.9080328181644723</v>
@@ -18587,13 +18593,13 @@
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="B234" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C234" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D234" s="3">
         <v>2.7456588355464762</v>
@@ -18658,13 +18664,13 @@
     </row>
     <row r="235" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="B235" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C235" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D235" s="3">
         <v>3.3459446677701585</v>
@@ -18729,13 +18735,13 @@
     </row>
     <row r="236" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="B236" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C236" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D236" s="3">
         <v>5.6091527520098952</v>
@@ -18800,13 +18806,13 @@
     </row>
     <row r="237" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B237" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C237" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D237" s="3">
         <v>7.6113327028249529</v>
@@ -18871,13 +18877,13 @@
     </row>
     <row r="238" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B238" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C238" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D238" s="3">
         <v>4.1014516259832945</v>
@@ -18942,13 +18948,13 @@
     </row>
     <row r="239" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B239" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C239" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D239" s="3">
         <v>5.6408741878322504</v>
@@ -19013,13 +19019,13 @@
     </row>
     <row r="240" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="B240" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C240" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D240" s="3">
         <v>3.2567126125408334</v>
@@ -19084,13 +19090,13 @@
     </row>
     <row r="241" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B241" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C241" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D241" s="3">
         <v>9.3854590910923843</v>
@@ -19155,13 +19161,13 @@
     </row>
     <row r="242" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B242" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C242" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D242" s="3">
         <v>3.1934526197544733</v>
@@ -19226,13 +19232,13 @@
     </row>
     <row r="243" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B243" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C243" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D243" s="3">
         <v>3.6878458617764678</v>
@@ -19297,13 +19303,13 @@
     </row>
     <row r="244" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B244" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D244" s="3">
         <v>2.1529562982005146</v>
@@ -19368,13 +19374,13 @@
     </row>
     <row r="245" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B245" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D245" s="3">
         <v>2.0567810457516345</v>
@@ -19439,13 +19445,13 @@
     </row>
     <row r="246" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B246" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D246" s="3">
         <v>2.4031828159297586</v>
@@ -19510,13 +19516,13 @@
     </row>
     <row r="247" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B247" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C247" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D247" s="3">
         <v>1.7014073016520499</v>
@@ -19581,13 +19587,13 @@
     </row>
     <row r="248" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B248" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C248" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D248" s="3">
         <v>2.5126955108673572</v>
@@ -19652,13 +19658,13 @@
     </row>
     <row r="249" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B249" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C249" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D249" s="3">
         <v>1.4280801132915235</v>
@@ -19723,13 +19729,13 @@
     </row>
     <row r="250" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="B250" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C250" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D250" s="3">
         <v>1.871361025360478</v>
@@ -19794,13 +19800,13 @@
     </row>
     <row r="251" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B251" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C251" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D251" s="3">
         <v>1.3341766052282857</v>
@@ -19865,13 +19871,13 @@
     </row>
     <row r="252" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="B252" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C252" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D252" s="3">
         <v>1.8319159775835718</v>
@@ -19936,13 +19942,13 @@
     </row>
     <row r="253" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B253" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C253" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D253" s="3">
         <v>1.6148035633646702</v>
@@ -20007,13 +20013,13 @@
     </row>
     <row r="254" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B254" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D254" s="3">
         <v>1.8180697645753729</v>
@@ -20078,13 +20084,13 @@
     </row>
     <row r="255" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B255" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D255" s="3">
         <v>1.3745835507566333</v>
@@ -20149,13 +20155,13 @@
     </row>
     <row r="256" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B256" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C256" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D256" s="3">
         <v>1.8664383561643838</v>
@@ -20220,13 +20226,13 @@
     </row>
     <row r="257" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B257" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C257" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D257" s="3">
         <v>2.2060022834774098</v>
@@ -20291,13 +20297,13 @@
     </row>
     <row r="258" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B258" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C258" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D258" s="3">
         <v>1.7799701542032831</v>
@@ -20351,7 +20357,7 @@
         <v>13.832697728403248</v>
       </c>
       <c r="U258" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V258" s="3">
         <v>26.809401425965842</v>
@@ -20362,13 +20368,13 @@
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B259" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C259" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D259" s="3">
         <v>3.0791608620830946</v>
@@ -20433,13 +20439,13 @@
     </row>
     <row r="260" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B260" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C260" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D260" s="3">
         <v>3.0444684166367013</v>
@@ -20504,13 +20510,13 @@
     </row>
     <row r="261" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="B261" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C261" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D261" s="3">
         <v>4.3810007025212707</v>
@@ -20575,13 +20581,13 @@
     </row>
     <row r="262" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="B262" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D262" s="3">
         <v>4.9665551839464888</v>
@@ -20635,7 +20641,7 @@
         <v>27.59615384615385</v>
       </c>
       <c r="U262" s="3" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="V262" s="3">
         <v>26.017976588628766</v>
@@ -20646,13 +20652,13 @@
     </row>
     <row r="263" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B263" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D263" s="3">
         <v>4.4497114591920859</v>
@@ -20717,13 +20723,13 @@
     </row>
     <row r="264" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B264" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D264" s="3">
         <v>5.5748853392377047</v>
@@ -20788,13 +20794,13 @@
     </row>
     <row r="265" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B265" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D265" s="3">
         <v>5.3864575688516361</v>
@@ -20859,13 +20865,13 @@
     </row>
     <row r="266" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B266" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D266" s="3">
         <v>7.6959155755325392</v>
@@ -20930,13 +20936,13 @@
     </row>
     <row r="267" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B267" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D267" s="3">
         <v>7.4005347380182789</v>
